--- a/7rmartsupermarket/src/test/resources/TestData.xlsx
+++ b/7rmartsupermarket/src/test/resources/TestData.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\7rmartrepo\7rmartsupermarket\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698CB028-CA13-4997-8A20-CCF2554BCCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1221678-C6FE-40B5-9454-65C4634D0AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A83E673F-BA32-43F1-AB3D-C647F7BED5C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{A83E673F-BA32-43F1-AB3D-C647F7BED5C5}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
+    <sheet name="managefooterpage" sheetId="2" r:id="rId2"/>
+    <sheet name="managenewspage" sheetId="3" r:id="rId3"/>
+    <sheet name="managecategorypageproduct" sheetId="6" r:id="rId4"/>
+    <sheet name="managecontactpage" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -45,23 +49,64 @@
     <t>admin</t>
   </si>
   <si>
-    <t>admin123</t>
-  </si>
-  <si>
     <t>adm</t>
   </si>
   <si>
     <t>admin12</t>
+  </si>
+  <si>
+    <t>admi</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>siva bhavan</t>
+  </si>
+  <si>
+    <t>meenu@gmail.com</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>Have  a nice day</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>deliverytime</t>
+  </si>
+  <si>
+    <t>deliverychargelimit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,13 +129,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39633906-2B8A-4920-A60A-659C2E18E041}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,12 +495,12 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -449,13 +508,172 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415B10BF-FD83-468B-B43B-C7A1315249CE}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9994328014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6F958E58-F792-48B2-8995-ACEA5EC5F13C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6627CE38-73FB-40A0-B0EF-4CA4AF7F0835}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C31521-47C0-41D9-859F-23A9CAE3996F}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D14A5B-85EA-44C9-8B37-2DA1CFAE7F77}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3">
+        <v>9994328014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A863DB68-8EEB-4085-82B6-67B713D8C723}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>